--- a/artfynd/A 31375-2019.xlsx
+++ b/artfynd/A 31375-2019.xlsx
@@ -938,42 +938,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78724296</v>
+        <v>78724082</v>
       </c>
       <c r="B4" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>549819.8950319205</v>
+        <v>549959.6746598893</v>
       </c>
       <c r="R4" t="n">
-        <v>6310132.390372528</v>
+        <v>6310466.906684699</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1040,6 +1040,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Enstaka stänglar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1067,50 +1072,55 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79419295</v>
+        <v>78724125</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1118,13 +1128,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>549721.0943263341</v>
+        <v>549971.0622238552</v>
       </c>
       <c r="R5" t="n">
-        <v>6310210.328545276</v>
+        <v>6310474.682101715</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1148,7 +1158,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,7 +1168,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1191,7 +1201,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78724082</v>
+        <v>78724150</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1226,7 +1236,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1247,10 +1257,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>549959.6746598893</v>
+        <v>549975.7459845732</v>
       </c>
       <c r="R6" t="n">
-        <v>6310466.906684699</v>
+        <v>6310494.380530807</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1293,11 +1303,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Enstaka stänglar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1325,7 +1330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78724125</v>
+        <v>78724138</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1360,7 +1365,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1381,10 +1386,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>549971.0622238552</v>
+        <v>549953.5961818122</v>
       </c>
       <c r="R7" t="n">
-        <v>6310474.682101715</v>
+        <v>6310472.289866249</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1454,7 +1459,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78724150</v>
+        <v>90955516</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1489,7 +1494,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>290</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1502,21 +1507,19 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vänatorp, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>549975.7459845732</v>
+        <v>549959.4781132181</v>
       </c>
       <c r="R8" t="n">
-        <v>6310494.380530807</v>
+        <v>6310483.272830077</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1538,6 +1541,11 @@
           <t>Älghult</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>G-Upp-0571</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2019-07-02</t>
@@ -1564,61 +1572,64 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
           <t>per taube</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>per taube</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78724138</v>
+        <v>78724296</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1628,7 +1639,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1639,10 +1650,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>549953.5961818122</v>
+        <v>549819.8950319205</v>
       </c>
       <c r="R9" t="n">
-        <v>6310472.289866249</v>
+        <v>6310132.390372528</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1712,67 +1723,64 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90955516</v>
+        <v>79419295</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vänatorp, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>549959.4781132181</v>
+        <v>549721.0943263341</v>
       </c>
       <c r="R10" t="n">
-        <v>6310483.272830077</v>
+        <v>6310210.328545276</v>
       </c>
       <c r="S10" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1794,14 +1802,9 @@
           <t>Älghult</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>G-Upp-0571</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2019-08-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1811,7 +1814,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2019-08-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1825,13 +1828,14 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
@@ -1839,11 +1843,7 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 31375-2019.xlsx
+++ b/artfynd/A 31375-2019.xlsx
@@ -938,42 +938,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78724082</v>
+        <v>78724296</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>549959.6746598893</v>
+        <v>549819.8950319205</v>
       </c>
       <c r="R4" t="n">
-        <v>6310466.906684699</v>
+        <v>6310132.390372528</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1040,11 +1040,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Enstaka stänglar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1072,55 +1067,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78724125</v>
+        <v>79419295</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1128,13 +1118,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>549971.0622238552</v>
+        <v>549721.0943263341</v>
       </c>
       <c r="R5" t="n">
-        <v>6310474.682101715</v>
+        <v>6310210.328545276</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1158,7 +1148,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2019-08-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1168,7 +1158,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2019-08-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1201,7 +1191,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78724150</v>
+        <v>78724082</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1236,7 +1226,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1257,10 +1247,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>549975.7459845732</v>
+        <v>549959.6746598893</v>
       </c>
       <c r="R6" t="n">
-        <v>6310494.380530807</v>
+        <v>6310466.906684699</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1303,6 +1293,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Enstaka stänglar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1330,7 +1325,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78724138</v>
+        <v>78724125</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1365,7 +1360,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1386,10 +1381,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>549953.5961818122</v>
+        <v>549971.0622238552</v>
       </c>
       <c r="R7" t="n">
-        <v>6310472.289866249</v>
+        <v>6310474.682101715</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1459,7 +1454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90955516</v>
+        <v>78724150</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1494,7 +1489,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1507,19 +1502,21 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vänatorp, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>549959.4781132181</v>
+        <v>549975.7459845732</v>
       </c>
       <c r="R8" t="n">
-        <v>6310483.272830077</v>
+        <v>6310494.380530807</v>
       </c>
       <c r="S8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1541,11 +1538,6 @@
           <t>Älghult</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>G-Upp-0571</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2019-07-02</t>
@@ -1572,13 +1564,14 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -1586,50 +1579,46 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78724296</v>
+        <v>78724138</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1639,7 +1628,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1650,10 +1639,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>549819.8950319205</v>
+        <v>549953.5961818122</v>
       </c>
       <c r="R9" t="n">
-        <v>6310132.390372528</v>
+        <v>6310472.289866249</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1723,64 +1712,67 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79419295</v>
+        <v>90955516</v>
       </c>
       <c r="B10" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>290</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vänatorp, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>549721.0943263341</v>
+        <v>549959.4781132181</v>
       </c>
       <c r="R10" t="n">
-        <v>6310210.328545276</v>
+        <v>6310483.272830077</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1802,9 +1794,14 @@
           <t>Älghult</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>G-Upp-0571</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1814,7 +1811,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1828,22 +1825,25 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
           <t>per taube</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>per taube</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
